--- a/Files/Gantt dan wbs4.0.xlsx
+++ b/Files/Gantt dan wbs4.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github-PPL\E-Tracer-Geofisika\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\Desktop\Before Upload Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -615,6 +615,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,7 +658,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BP53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -999,198 +999,198 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="53" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="56" t="s">
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57"/>
-      <c r="AJ6" s="57"/>
-      <c r="AK6" s="57"/>
-      <c r="AL6" s="57"/>
-      <c r="AM6" s="57"/>
-      <c r="AN6" s="57"/>
-      <c r="AO6" s="57"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="58"/>
-      <c r="AU6" s="47" t="s">
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="58"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="58"/>
+      <c r="AO6" s="58"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="58"/>
+      <c r="AR6" s="58"/>
+      <c r="AS6" s="58"/>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="47"/>
-      <c r="AY6" s="47"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="47"/>
-      <c r="BB6" s="47"/>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="47"/>
-      <c r="BE6" s="47"/>
-      <c r="BF6" s="47"/>
-      <c r="BG6" s="47"/>
-      <c r="BH6" s="47"/>
-      <c r="BI6" s="47"/>
-      <c r="BJ6" s="47"/>
-      <c r="BK6" s="47"/>
-      <c r="BL6" s="47"/>
-      <c r="BM6" s="47"/>
-      <c r="BN6" s="47"/>
-      <c r="BO6" s="47"/>
-      <c r="BP6" s="47"/>
+      <c r="AV6" s="48"/>
+      <c r="AW6" s="48"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="48"/>
+      <c r="AZ6" s="48"/>
+      <c r="BA6" s="48"/>
+      <c r="BB6" s="48"/>
+      <c r="BC6" s="48"/>
+      <c r="BD6" s="48"/>
+      <c r="BE6" s="48"/>
+      <c r="BF6" s="48"/>
+      <c r="BG6" s="48"/>
+      <c r="BH6" s="48"/>
+      <c r="BI6" s="48"/>
+      <c r="BJ6" s="48"/>
+      <c r="BK6" s="48"/>
+      <c r="BL6" s="48"/>
+      <c r="BM6" s="48"/>
+      <c r="BN6" s="48"/>
+      <c r="BO6" s="48"/>
+      <c r="BP6" s="48"/>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="53" t="s">
+      <c r="A7" s="52"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="56" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="56" t="s">
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="56" t="s">
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="56" t="s">
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="56" t="s">
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="56" t="s">
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="58"/>
-      <c r="AK7" s="56" t="s">
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="58"/>
-      <c r="AP7" s="56" t="s">
+      <c r="AL7" s="58"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="58"/>
+      <c r="AO7" s="59"/>
+      <c r="AP7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="58"/>
-      <c r="AU7" s="56" t="s">
+      <c r="AQ7" s="58"/>
+      <c r="AR7" s="58"/>
+      <c r="AS7" s="58"/>
+      <c r="AT7" s="59"/>
+      <c r="AU7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="58"/>
-      <c r="AZ7" s="56" t="s">
+      <c r="AV7" s="58"/>
+      <c r="AW7" s="58"/>
+      <c r="AX7" s="58"/>
+      <c r="AY7" s="59"/>
+      <c r="AZ7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="BA7" s="57"/>
-      <c r="BB7" s="57"/>
-      <c r="BC7" s="57"/>
-      <c r="BD7" s="58"/>
-      <c r="BE7" s="56" t="s">
+      <c r="BA7" s="58"/>
+      <c r="BB7" s="58"/>
+      <c r="BC7" s="58"/>
+      <c r="BD7" s="59"/>
+      <c r="BE7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="BF7" s="57"/>
-      <c r="BG7" s="57"/>
-      <c r="BH7" s="57"/>
-      <c r="BI7" s="58"/>
-      <c r="BJ7" s="56" t="s">
+      <c r="BF7" s="58"/>
+      <c r="BG7" s="58"/>
+      <c r="BH7" s="58"/>
+      <c r="BI7" s="59"/>
+      <c r="BJ7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="BK7" s="57"/>
-      <c r="BL7" s="57"/>
-      <c r="BM7" s="57"/>
-      <c r="BN7" s="57"/>
-      <c r="BO7" s="48" t="s">
+      <c r="BK7" s="58"/>
+      <c r="BL7" s="58"/>
+      <c r="BM7" s="58"/>
+      <c r="BN7" s="58"/>
+      <c r="BO7" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="BP7" s="49"/>
+      <c r="BP7" s="50"/>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="12">
         <v>4</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="26">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -2339,7 +2339,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="17">
-        <v>43552</v>
+        <v>43540</v>
       </c>
       <c r="E21" s="17">
         <v>43559</v>
@@ -2377,14 +2377,14 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
@@ -2419,13 +2419,13 @@
         <v>69</v>
       </c>
       <c r="D22" s="17">
-        <v>43553</v>
+        <v>43541</v>
       </c>
       <c r="E22" s="17">
         <v>43558</v>
       </c>
       <c r="F22" s="32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2457,15 +2457,15 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
@@ -2652,10 +2652,10 @@
       <c r="C25" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="47">
         <v>43557</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="47">
         <v>43557</v>
       </c>
       <c r="F25" s="25">
